--- a/Static/example/studentinfo.xlsx
+++ b/Static/example/studentinfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>B1103392</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -434,7 +442,7 @@
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +455,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1110339043</v>
       </c>
@@ -460,6 +471,9 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
